--- a/nnano-stats.xlsx
+++ b/nnano-stats.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30380" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="33260" windowHeight="20520" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagrams" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$2:$L$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$K$2:$L$12</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="36">
   <si>
     <t>spin</t>
   </si>
@@ -83,12 +84,60 @@
   <si>
     <t>2014 nnano</t>
   </si>
+  <si>
+    <t xml:space="preserve">TOP 10 MOSTLY REFERENCED KEYWORDS </t>
+  </si>
+  <si>
+    <t>2010 nnano</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>nanotubes</t>
+  </si>
+  <si>
+    <t>nanoscale</t>
+  </si>
+  <si>
+    <t>molecules</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>2008 nnano</t>
+  </si>
+  <si>
+    <t>2007 nnano</t>
+  </si>
+  <si>
+    <t>molecular</t>
+  </si>
+  <si>
+    <t>2006 nnano</t>
+  </si>
+  <si>
+    <t>nanowires</t>
+  </si>
+  <si>
+    <t>in Nature Nanotechnolgy from year 2006 to 2014</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Trends through time</t>
+  </si>
+  <si>
+    <t>2009 nnano</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,13 +161,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,7 +209,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -142,21 +221,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -185,19 +275,24 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0553707723184032"/>
-          <c:y val="0.03938731532027"/>
-          <c:w val="0.833342969668463"/>
-          <c:h val="0.757829004260756"/>
+          <c:x val="0.0"/>
+          <c:y val="0.00139562554680665"/>
+          <c:w val="1.0"/>
+          <c:h val="0.901715825443427"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="800000"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -210,77 +305,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$3:$E$12</c:f>
+              <c:f>Data!$B$3:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>spin</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>quantum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>single</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>magnetic</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>quantum</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>single</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>electron</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>optical</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>devices</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>graphene</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>electron</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>nanoparticles</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>cells</c:v>
+                  <c:v>applications</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>field</c:v>
+                  <c:v>energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$12</c:f>
+              <c:f>Data!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>166.0</c:v>
+                  <c:v>197.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.0</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.0</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.0</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.0</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.0</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59.0</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -295,20 +390,32 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141217720"/>
-        <c:axId val="2141432648"/>
+        <c:axId val="2109645992"/>
+        <c:axId val="2109648872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141217720"/>
+        <c:axId val="2109645992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141432648"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1">
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109648872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -316,31 +423,35 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141432648"/>
+        <c:axId val="2109648872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141217720"/>
+        <c:crossAx val="2109645992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -349,20 +460,1694 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="124"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="24"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0"/>
+          <c:y val="0.0040760873925975"/>
+          <c:w val="1.0"/>
+          <c:h val="0.901715825443427"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$E$3:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>spin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>magnetic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>quantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>single</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>devices</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>graphene</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>electron</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>nanoparticles</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>cells</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>field</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2130120488"/>
+        <c:axId val="-2130118360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2130120488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1">
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2130118360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2130118360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130120488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="124"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="24"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0"/>
+          <c:y val="0.00139568134742489"/>
+          <c:w val="1.0"/>
+          <c:h val="0.901715825443427"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$H$3:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>single</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>quantum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>nanoparticles</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>graphene</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>devices</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>surface</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>materials</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>electron</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>properties</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>spin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2116588856"/>
+        <c:axId val="-2126008712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2116588856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1">
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2126008712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2126008712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2116588856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="124"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="24"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0"/>
+          <c:y val="0.0"/>
+          <c:w val="1.0"/>
+          <c:h val="0.901715825443427"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="008000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$K$3:$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nanoparticles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cells</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>single</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>applications</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>graphene</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>surface</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>quantum</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>materials</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>devices</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>properties</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2142935192"/>
+        <c:axId val="2145942264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2142935192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1">
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2145942264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2145942264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2142935192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="124"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="24"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0"/>
+          <c:y val="0.00139568134742489"/>
+          <c:w val="1.0"/>
+          <c:h val="0.901715825443427"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3366FF"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$16:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>single</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>devices</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>carbon</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>graphene</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DNA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nanotubes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>nanoscale</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>surface</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>molecules</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>quantum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2129677624"/>
+        <c:axId val="-2128287240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2129677624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1">
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2128287240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2128287240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2129677624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="124"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="24"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0"/>
+          <c:y val="0.0"/>
+          <c:w val="1.0"/>
+          <c:h val="0.901715825443427"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$E$16:$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>single</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nanotubes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DNA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nanoparticles</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>carbon</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>properties</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>devices</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>force</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>graphene</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>quantum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$F$16:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2125719480"/>
+        <c:axId val="-2125912968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2125719480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1">
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2125912968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2125912968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2125719480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="124"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="24"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0"/>
+          <c:y val="0.00139568134742489"/>
+          <c:w val="1.0"/>
+          <c:h val="0.901715825443427"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="000090"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$H$16:$H$25</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>single</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nanotubes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>carbon</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>graphene</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>devices</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nanoparticles</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>properties</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>molecules</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>applications</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>electron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$16:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2126183224"/>
+        <c:axId val="-2125568648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2126183224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1">
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2125568648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2125568648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2126183224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="124"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="24"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0"/>
+          <c:y val="0.0"/>
+          <c:w val="1.0"/>
+          <c:h val="0.901715825443427"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="660066"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$K$16:$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>nanotubes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>carbon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>single</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>properties</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>devices</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>surface</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>nanoparticles</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>molecular</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>molecules</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>applications</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$L$16:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2142143848"/>
+        <c:axId val="2142146888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2142143848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1">
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2142146888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2142146888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2142143848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="124"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="24"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0"/>
+          <c:y val="0.00139568134742489"/>
+          <c:w val="1.0"/>
+          <c:h val="0.901715825443427"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$B$29:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>carbon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nanotubes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>devices</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>molecules</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>molecular</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DNA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>single</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>quantum</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>nanoparticles</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>nanowires</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$29:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2124892136"/>
+        <c:axId val="-2125768040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2124892136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1">
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2125768040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2125768040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124892136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>16932</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>186267</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9889068" cy="2531533"/>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -375,8 +2160,1239 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1325804" cy="707886"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="1511300"/>
+          <a:ext cx="1325804" cy="707886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000">
+              <a:latin typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>2014</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1325804" cy="707886"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="4597400"/>
+          <a:ext cx="1325804" cy="707886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000">
+              <a:latin typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>2013</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1325804" cy="707886"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="7823200"/>
+          <a:ext cx="1325804" cy="707886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000">
+              <a:latin typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>2012</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1325804" cy="707886"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="10871200"/>
+          <a:ext cx="1325804" cy="707886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000">
+              <a:latin typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>2011</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85399</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.24773</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7754696" y="0"/>
+          <a:ext cx="1325804" cy="707886"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="4000">
+              <a:latin typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>2010</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85399</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.23225</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7754696" y="0"/>
+          <a:ext cx="1325804" cy="707886"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="4000">
+              <a:latin typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>2009</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85399</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.24773</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7754696" y="0"/>
+          <a:ext cx="1325804" cy="707886"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="4000">
+              <a:latin typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>2008</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85399</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.23225</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7754696" y="0"/>
+          <a:ext cx="1325804" cy="707886"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="4000">
+              <a:latin typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>2007</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85399</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.24773</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7754696" y="0"/>
+          <a:ext cx="1325804" cy="707886"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="4000">
+              <a:latin typeface="Helvetica"/>
+              <a:cs typeface="Helvetica"/>
+            </a:rPr>
+            <a:t>2006</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,13 +3717,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -716,21 +3732,21 @@
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" t="s">
+    <row r="2" spans="2:12" s="3" customFormat="1" ht="14" customHeight="1">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" ht="14" customHeight="1">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -756,7 +3772,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" ht="14" customHeight="1">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -782,7 +3798,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" ht="14" customHeight="1">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -808,7 +3824,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" ht="14" customHeight="1">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -834,7 +3850,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" ht="14" customHeight="1">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -860,7 +3876,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" ht="14" customHeight="1">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -886,7 +3902,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" ht="14" customHeight="1">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -912,7 +3928,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" ht="14" customHeight="1">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -938,7 +3954,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" ht="14" customHeight="1">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -964,7 +3980,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" ht="14" customHeight="1">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -990,9 +4006,526 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="23" customHeight="1"/>
-    <row r="16" spans="2:12" ht="25" customHeight="1"/>
+    <row r="15" spans="2:12" s="3" customFormat="1" ht="14" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="14" customHeight="1">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>94</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>127</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="14" customHeight="1">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>92</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>118</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="14" customHeight="1">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>91</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <v>103</v>
+      </c>
+      <c r="K18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="14" customHeight="1">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>95</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="14" customHeight="1">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>81</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="14" customHeight="1">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="14" customHeight="1">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>67</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="14" customHeight="1">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>71</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="14" customHeight="1">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24">
+        <v>67</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="14" customHeight="1">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>60</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>62</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" s="3" customFormat="1" ht="14" customHeight="1">
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="14" customHeight="1">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="14" customHeight="1">
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="14" customHeight="1">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="14" customHeight="1">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="14" customHeight="1">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="14" customHeight="1">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="14" customHeight="1">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="14" customHeight="1">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="14" customHeight="1">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="14" customHeight="1">
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" s="3" customFormat="1" ht="14" customHeight="1">
+      <c r="B40" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="14" customHeight="1">
+      <c r="C41">
+        <v>2014</v>
+      </c>
+      <c r="D41">
+        <v>2013</v>
+      </c>
+      <c r="E41">
+        <v>2012</v>
+      </c>
+      <c r="F41">
+        <v>2011</v>
+      </c>
+      <c r="G41">
+        <v>2010</v>
+      </c>
+      <c r="H41">
+        <v>2009</v>
+      </c>
+      <c r="I41">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="14" customHeight="1">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="14" customHeight="1">
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="14" customHeight="1">
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="14" customHeight="1">
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="14" customHeight="1">
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="14" customHeight="1">
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="14" customHeight="1">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="14" customHeight="1">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="14" customHeight="1">
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="14" customHeight="1">
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:L8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="5" spans="2:12" ht="15" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" ht="15" customHeight="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:L6"/>
+    <mergeCell ref="B7:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
